--- a/Code/Results/Cases/Case_2_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.357524822305493</v>
+        <v>2.304610401831553</v>
       </c>
       <c r="C2">
-        <v>0.9228850295684765</v>
+        <v>0.3170129671150619</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.039561942216924</v>
+        <v>0.06399016100356292</v>
       </c>
       <c r="F2">
-        <v>1.944171449360766</v>
+        <v>2.994349281435461</v>
       </c>
       <c r="G2">
-        <v>0.0008143647419165328</v>
+        <v>0.002564756800084399</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.124408269820741</v>
+        <v>1.817068789092097</v>
       </c>
       <c r="J2">
-        <v>0.05526385141615009</v>
+        <v>0.1265883087075839</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1753961780566158</v>
+        <v>0.3426189057107791</v>
       </c>
       <c r="M2">
-        <v>0.542008959421608</v>
+        <v>0.4901941093412248</v>
       </c>
       <c r="N2">
-        <v>1.127288871191389</v>
+        <v>2.266691422384085</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.928380393949283</v>
+        <v>2.205259143556304</v>
       </c>
       <c r="C3">
-        <v>0.794050703744432</v>
+        <v>0.2830076992580075</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.03594295314682583</v>
+        <v>0.06278229866926743</v>
       </c>
       <c r="F3">
-        <v>1.817863492959617</v>
+        <v>2.981554429324746</v>
       </c>
       <c r="G3">
-        <v>0.0008230123840467186</v>
+        <v>0.002570210412247775</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.071367025673851</v>
+        <v>1.81538913966844</v>
       </c>
       <c r="J3">
-        <v>0.05866481966301151</v>
+        <v>0.1278333547390629</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1614026957379764</v>
+        <v>0.3408034560854105</v>
       </c>
       <c r="M3">
-        <v>0.4769999001694103</v>
+        <v>0.4762086495737563</v>
       </c>
       <c r="N3">
-        <v>1.182764988785777</v>
+        <v>2.288435265045486</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.669243292537601</v>
+        <v>2.145572075245241</v>
       </c>
       <c r="C4">
-        <v>0.7163697275180141</v>
+        <v>0.2622657990619359</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.03377076150717251</v>
+        <v>0.06202608509202889</v>
       </c>
       <c r="F4">
-        <v>1.743987662972472</v>
+        <v>2.975213051974677</v>
       </c>
       <c r="G4">
-        <v>0.0008284673236116959</v>
+        <v>0.002573735499988531</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.041261800249735</v>
+        <v>1.815296149735445</v>
       </c>
       <c r="J4">
-        <v>0.06083345151284014</v>
+        <v>0.1286335460213266</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1529813265168798</v>
+        <v>0.3398117885027361</v>
       </c>
       <c r="M4">
-        <v>0.4377583141199892</v>
+        <v>0.4678830974637691</v>
       </c>
       <c r="N4">
-        <v>1.218572418809416</v>
+        <v>2.302519670441797</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.564605211636888</v>
+        <v>2.121579046535714</v>
       </c>
       <c r="C5">
-        <v>0.6850202821661071</v>
+        <v>0.2538470535120609</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.0328955793909369</v>
+        <v>0.06171419247133159</v>
       </c>
       <c r="F5">
-        <v>1.71473612377649</v>
+        <v>2.973009208376979</v>
       </c>
       <c r="G5">
-        <v>0.0008307283667859692</v>
+        <v>0.002575216547592669</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.029565966932601</v>
+        <v>1.815493626592328</v>
       </c>
       <c r="J5">
-        <v>0.0617365588852179</v>
+        <v>0.1289686031494703</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1495895606550377</v>
+        <v>0.3394387070239802</v>
       </c>
       <c r="M5">
-        <v>0.4219178401502077</v>
+        <v>0.464556130791614</v>
       </c>
       <c r="N5">
-        <v>1.233585484272787</v>
+        <v>2.308443356777055</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.547284557328794</v>
+        <v>2.117614928995636</v>
       </c>
       <c r="C6">
-        <v>0.6798317902930933</v>
+        <v>0.2524511416374366</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.03275079069377362</v>
+        <v>0.06166217585958478</v>
       </c>
       <c r="F6">
-        <v>1.709928493109928</v>
+        <v>2.972666215825626</v>
       </c>
       <c r="G6">
-        <v>0.0008311061572023408</v>
+        <v>0.002575465169313963</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.027657147869</v>
+        <v>1.815540616565038</v>
       </c>
       <c r="J6">
-        <v>0.06188766619389874</v>
+        <v>0.1290247807325695</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1490286961178029</v>
+        <v>0.3393786341542437</v>
       </c>
       <c r="M6">
-        <v>0.4192961287946204</v>
+        <v>0.4640076622140228</v>
       </c>
       <c r="N6">
-        <v>1.236103349809056</v>
+        <v>2.309438095729078</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.667828379071807</v>
+        <v>2.145247161933753</v>
       </c>
       <c r="C7">
-        <v>0.7159457635599438</v>
+        <v>0.2621521253479386</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.03375892116751267</v>
+        <v>0.06202189398097957</v>
       </c>
       <c r="F7">
-        <v>1.743589801140018</v>
+        <v>2.97518179103767</v>
       </c>
       <c r="G7">
-        <v>0.0008284976605873067</v>
+        <v>0.002573755293513035</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.041101808198619</v>
+        <v>1.815297860747712</v>
       </c>
       <c r="J7">
-        <v>0.06084555374949296</v>
+        <v>0.1286380284051667</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1529354256624558</v>
+        <v>0.3398066312232686</v>
       </c>
       <c r="M7">
-        <v>0.4375440971073061</v>
+        <v>0.4678379625689928</v>
       </c>
       <c r="N7">
-        <v>1.218773206735001</v>
+        <v>2.30259881402938</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.20856691732132</v>
+        <v>2.270080673307234</v>
       </c>
       <c r="C8">
-        <v>0.8781347851790997</v>
+        <v>0.3052589120672735</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.03830215158699701</v>
+        <v>0.06357667821630919</v>
       </c>
       <c r="F8">
-        <v>1.899812398003121</v>
+        <v>2.989622881202678</v>
       </c>
       <c r="G8">
-        <v>0.0008173172957955943</v>
+        <v>0.00256660065438727</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.105579156379875</v>
+        <v>1.816294542646929</v>
       </c>
       <c r="J8">
-        <v>0.05641926976474387</v>
+        <v>0.1270101784040607</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1705339742639751</v>
+        <v>0.3419674602820635</v>
       </c>
       <c r="M8">
-        <v>0.5194421152615973</v>
+        <v>0.4853176183417887</v>
       </c>
       <c r="N8">
-        <v>1.146043892708803</v>
+        <v>2.274036266353122</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.310242106194039</v>
+        <v>2.525362490340513</v>
       </c>
       <c r="C9">
-        <v>1.210088747147665</v>
+        <v>0.3909234369369301</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.04773673739507878</v>
+        <v>0.06651284161980442</v>
       </c>
       <c r="F9">
-        <v>2.238891295590605</v>
+        <v>3.029991600802603</v>
       </c>
       <c r="G9">
-        <v>0.0007964663961075493</v>
+        <v>0.002553964350996358</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.253891668197639</v>
+        <v>1.825722804749546</v>
       </c>
       <c r="J9">
-        <v>0.04842148079026298</v>
+        <v>0.12410192425516</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2065441270961301</v>
+        <v>0.3471773674802279</v>
       </c>
       <c r="M9">
-        <v>0.6863310766080062</v>
+        <v>0.5216738357142674</v>
       </c>
       <c r="N9">
-        <v>1.018134781840608</v>
+        <v>2.223858370773499</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.155287610687481</v>
+        <v>2.719402045781976</v>
       </c>
       <c r="C10">
-        <v>1.466542286151878</v>
+        <v>0.4546152195821946</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05519601371828209</v>
+        <v>0.06860549336886379</v>
       </c>
       <c r="F10">
-        <v>2.513465402016152</v>
+        <v>3.067047696564899</v>
       </c>
       <c r="G10">
-        <v>0.0007816796829269901</v>
+        <v>0.00254552055276692</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.379827840365593</v>
+        <v>1.837249282927118</v>
       </c>
       <c r="J10">
-        <v>0.04303315641193883</v>
+        <v>0.1221389219146864</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2341400305566879</v>
+        <v>0.3515939165796311</v>
       </c>
       <c r="M10">
-        <v>0.8142392507362004</v>
+        <v>0.5496601416765188</v>
       </c>
       <c r="N10">
-        <v>0.9344767832979386</v>
+        <v>2.190564775775371</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.550151746399479</v>
+        <v>2.809105554591156</v>
       </c>
       <c r="C11">
-        <v>1.586999963760491</v>
+        <v>0.483768257753411</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.0587593966578801</v>
+        <v>0.06954439880551</v>
       </c>
       <c r="F11">
-        <v>2.645307357858002</v>
+        <v>3.085523511385844</v>
       </c>
       <c r="G11">
-        <v>0.0007750373147817267</v>
+        <v>0.002541859602316595</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.441739251710601</v>
+        <v>1.843501453384619</v>
       </c>
       <c r="J11">
-        <v>0.04070756051320679</v>
+        <v>0.1212837511085691</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2469982757167344</v>
+        <v>0.3537301913441127</v>
       </c>
       <c r="M11">
-        <v>0.8739516590485579</v>
+        <v>0.5626708476773672</v>
       </c>
       <c r="N11">
-        <v>0.899006935898754</v>
+        <v>2.176197835187637</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.701436567303347</v>
+        <v>2.843281479750374</v>
       </c>
       <c r="C12">
-        <v>1.63326266069771</v>
+        <v>0.4948345778610701</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06013872651221952</v>
+        <v>0.06989813357666463</v>
       </c>
       <c r="F12">
-        <v>2.696364032019716</v>
+        <v>3.092753443112684</v>
       </c>
       <c r="G12">
-        <v>0.0007725311667999507</v>
+        <v>0.002540499046796108</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.465938116242668</v>
+        <v>1.846014787410056</v>
       </c>
       <c r="J12">
-        <v>0.03984701236414345</v>
+        <v>0.1209653719776327</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2519164860353698</v>
+        <v>0.3545573498993519</v>
       </c>
       <c r="M12">
-        <v>0.896818286240169</v>
+        <v>0.5676379689793905</v>
       </c>
       <c r="N12">
-        <v>0.8859813212277103</v>
+        <v>2.170869738951993</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.668772036370456</v>
+        <v>2.835911854022925</v>
       </c>
       <c r="C13">
-        <v>1.623268562201019</v>
+        <v>0.4924500458374155</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05984023410692352</v>
+        <v>0.06982202979144247</v>
       </c>
       <c r="F13">
-        <v>2.685315455565132</v>
+        <v>3.091185948871015</v>
       </c>
       <c r="G13">
-        <v>0.0007730705533845726</v>
+        <v>0.002540790923150236</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.460691352884155</v>
+        <v>1.845467001077182</v>
       </c>
       <c r="J13">
-        <v>0.04003141617441131</v>
+        <v>0.1210336976815753</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2508549887844822</v>
+        <v>0.3543783985537914</v>
       </c>
       <c r="M13">
-        <v>0.8918816036738306</v>
+        <v>0.5665664196815499</v>
       </c>
       <c r="N13">
-        <v>0.8887679693574242</v>
+        <v>2.172012236329309</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.562561214730351</v>
+        <v>2.811913071276763</v>
       </c>
       <c r="C14">
-        <v>1.590792401259421</v>
+        <v>0.4846781502595263</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05887224007087077</v>
+        <v>0.06957353662436816</v>
       </c>
       <c r="F14">
-        <v>2.649484329717239</v>
+        <v>3.086113637296791</v>
       </c>
       <c r="G14">
-        <v>0.0007748309666854548</v>
+        <v>0.002541747153214194</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.443714432786834</v>
+        <v>1.843705301218193</v>
       </c>
       <c r="J14">
-        <v>0.04063634676489869</v>
+        <v>0.1212574484205788</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2474018841122927</v>
+        <v>0.353797877969896</v>
       </c>
       <c r="M14">
-        <v>0.875827584404071</v>
+        <v>0.5630786888108261</v>
       </c>
       <c r="N14">
-        <v>0.8979269613927414</v>
+        <v>2.175757235434602</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.497741170535505</v>
+        <v>2.797240130258672</v>
       </c>
       <c r="C15">
-        <v>1.570987474980313</v>
+        <v>0.4799211437995154</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.05828339442201447</v>
+        <v>0.06942109393335194</v>
       </c>
       <c r="F15">
-        <v>2.627688266641627</v>
+        <v>3.083037136797913</v>
       </c>
       <c r="G15">
-        <v>0.0007759103719793054</v>
+        <v>0.002542336223064874</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.433416679790412</v>
+        <v>1.842645214676068</v>
       </c>
       <c r="J15">
-        <v>0.04100956927835142</v>
+        <v>0.1213952132406675</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2452933146170437</v>
+        <v>0.3534446596205072</v>
       </c>
       <c r="M15">
-        <v>0.8660283467047378</v>
+        <v>0.5609475959833503</v>
       </c>
       <c r="N15">
-        <v>0.9035910771005291</v>
+        <v>2.178065799338142</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.129713691821848</v>
+        <v>2.713568645870339</v>
       </c>
       <c r="C16">
-        <v>1.458754893664491</v>
+        <v>0.4527136860353949</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.0549670117029919</v>
+        <v>0.06854387688836105</v>
       </c>
       <c r="F16">
-        <v>2.504999843220716</v>
+        <v>3.065872897709738</v>
       </c>
       <c r="G16">
-        <v>0.0007821152288956994</v>
+        <v>0.002545763417838227</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.37588220221987</v>
+        <v>1.836861048183238</v>
       </c>
       <c r="J16">
-        <v>0.04318783353989986</v>
+        <v>0.122195571724907</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2333062814127942</v>
+        <v>0.3514568572861521</v>
       </c>
       <c r="M16">
-        <v>0.8103705400269092</v>
+        <v>0.5488154912439072</v>
       </c>
       <c r="N16">
-        <v>0.9368496840952858</v>
+        <v>2.191519388849578</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.906788844888183</v>
+        <v>2.662606835241377</v>
       </c>
       <c r="C17">
-        <v>1.390944451954454</v>
+        <v>0.4360693658341006</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05297973673325096</v>
+        <v>0.06800243817861507</v>
       </c>
       <c r="F17">
-        <v>2.4316010444564</v>
+        <v>3.055758343959226</v>
       </c>
       <c r="G17">
-        <v>0.0007859412954282508</v>
+        <v>0.002547911937104979</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.341830821515288</v>
+        <v>1.833571515146247</v>
       </c>
       <c r="J17">
-        <v>0.04455764043049903</v>
+        <v>0.1226962625106953</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2260342265232822</v>
+        <v>0.3502699114921484</v>
       </c>
       <c r="M17">
-        <v>0.7766410020236876</v>
+        <v>0.5414444785670582</v>
       </c>
       <c r="N17">
-        <v>0.9579381417813408</v>
+        <v>2.199972405824127</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.779534726391603</v>
+        <v>2.633429859910962</v>
       </c>
       <c r="C18">
-        <v>1.352292071256329</v>
+        <v>0.4265128170260368</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05185234643708903</v>
+        <v>0.06768978425869321</v>
       </c>
       <c r="F18">
-        <v>2.390028020811215</v>
+        <v>3.050093044019292</v>
       </c>
       <c r="G18">
-        <v>0.0007881500671423542</v>
+        <v>0.002549164676052529</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.322674449663396</v>
+        <v>1.831774364296152</v>
       </c>
       <c r="J18">
-        <v>0.04535719577665898</v>
+        <v>0.1229878041954944</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2218798679055425</v>
+        <v>0.34959918619424</v>
       </c>
       <c r="M18">
-        <v>0.7573819701744284</v>
+        <v>0.5372311809090462</v>
       </c>
       <c r="N18">
-        <v>0.970308841169583</v>
+        <v>2.204907607280177</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.736607370943034</v>
+        <v>2.623574179836851</v>
       </c>
       <c r="C19">
-        <v>1.339262327159076</v>
+        <v>0.4232799957910629</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.05147316348293174</v>
+        <v>0.0675837112208626</v>
       </c>
       <c r="F19">
-        <v>2.376058918161533</v>
+        <v>3.048201009699639</v>
       </c>
       <c r="G19">
-        <v>0.0007888993972192923</v>
+        <v>0.002549591750224323</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.316259579000132</v>
+        <v>1.8311821575506</v>
       </c>
       <c r="J19">
-        <v>0.04562986055144336</v>
+        <v>0.1230871256624599</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2204779895479874</v>
+        <v>0.349374149483296</v>
       </c>
       <c r="M19">
-        <v>0.750884455969576</v>
+        <v>0.5358091488936623</v>
       </c>
       <c r="N19">
-        <v>0.9745378019976272</v>
+        <v>2.206591150090198</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.930417811866505</v>
+        <v>2.668017837482296</v>
       </c>
       <c r="C20">
-        <v>1.398126028677382</v>
+        <v>0.4378394343615355</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.05318963001696453</v>
+        <v>0.06806020233833188</v>
       </c>
       <c r="F20">
-        <v>2.439346903253011</v>
+        <v>3.056819285092672</v>
       </c>
       <c r="G20">
-        <v>0.0007855331838236537</v>
+        <v>0.00254768146852997</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.345410627852758</v>
+        <v>1.833911864424977</v>
       </c>
       <c r="J20">
-        <v>0.04441059974216532</v>
+        <v>0.1226425947921763</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2268053804582024</v>
+        <v>0.3503950252245147</v>
       </c>
       <c r="M20">
-        <v>0.7802167021881843</v>
+        <v>0.542226411762158</v>
       </c>
       <c r="N20">
-        <v>0.9556680457503148</v>
+        <v>2.199064983750283</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.593707980867464</v>
+        <v>2.818956465654935</v>
       </c>
       <c r="C21">
-        <v>1.600312966005788</v>
+        <v>0.4869602125165784</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05915570234393108</v>
+        <v>0.06964657361877258</v>
       </c>
       <c r="F21">
-        <v>2.659976957514544</v>
+        <v>3.087597153781189</v>
       </c>
       <c r="G21">
-        <v>0.000774313666974018</v>
+        <v>0.002541465587031433</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.448679719496539</v>
+        <v>1.844218793141167</v>
       </c>
       <c r="J21">
-        <v>0.04045810025082197</v>
+        <v>0.1211915791920593</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2484147679792841</v>
+        <v>0.3539678977569025</v>
       </c>
       <c r="M21">
-        <v>0.8805358187346499</v>
+        <v>0.5641020271817681</v>
       </c>
       <c r="N21">
-        <v>0.895225429008299</v>
+        <v>2.174654185919344</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.037599415066836</v>
+        <v>2.91881149943066</v>
       </c>
       <c r="C22">
-        <v>1.736288895013445</v>
+        <v>0.5192195235928807</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.06323267977426994</v>
+        <v>0.07067285093107856</v>
       </c>
       <c r="F22">
-        <v>2.810838352408325</v>
+        <v>3.109073893119842</v>
       </c>
       <c r="G22">
-        <v>0.0007670328844187099</v>
+        <v>0.00253755327326366</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.520619503850256</v>
+        <v>1.851804984602353</v>
       </c>
       <c r="J22">
-        <v>0.03799332209803374</v>
+        <v>0.1202750645525086</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2628266731436923</v>
+        <v>0.3564090062610461</v>
       </c>
       <c r="M22">
-        <v>0.9476053267035311</v>
+        <v>0.5786336342148104</v>
       </c>
       <c r="N22">
-        <v>0.8581086933684574</v>
+        <v>2.159355388549017</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.799641670806182</v>
+        <v>2.865406140091409</v>
       </c>
       <c r="C23">
-        <v>1.663327491841585</v>
+        <v>0.5019875403547189</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.06103840092725932</v>
+        <v>0.07012604604534367</v>
       </c>
       <c r="F23">
-        <v>2.729662115506272</v>
+        <v>3.09748650966597</v>
       </c>
       <c r="G23">
-        <v>0.0007709151040670056</v>
+        <v>0.002539627658934571</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.481784139958137</v>
+        <v>1.847678073736645</v>
       </c>
       <c r="J23">
-        <v>0.03929721216545623</v>
+        <v>0.120761308896725</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2551064332715072</v>
+        <v>0.3550964678745459</v>
       </c>
       <c r="M23">
-        <v>0.9116584507725705</v>
+        <v>0.5708563577736498</v>
       </c>
       <c r="N23">
-        <v>0.8776877791114828</v>
+        <v>2.167460568989142</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.919732345503803</v>
+        <v>2.665571144532692</v>
       </c>
       <c r="C24">
-        <v>1.394878208948342</v>
+        <v>0.4370391475371775</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05309469056939875</v>
+        <v>0.06803409144532857</v>
       </c>
       <c r="F24">
-        <v>2.435843063868617</v>
+        <v>3.056339167406833</v>
       </c>
       <c r="G24">
-        <v>0.000785717662583797</v>
+        <v>0.002547785608745318</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.343790895141609</v>
+        <v>1.833757699639605</v>
       </c>
       <c r="J24">
-        <v>0.04447703950105986</v>
+        <v>0.1226668464823666</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.226456659790415</v>
+        <v>0.3503384249635815</v>
       </c>
       <c r="M24">
-        <v>0.7785997179595228</v>
+        <v>0.5418728237805865</v>
       </c>
       <c r="N24">
-        <v>0.9566935903848233</v>
+        <v>2.199474994292615</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.006778385254847</v>
+        <v>2.455170164585411</v>
       </c>
       <c r="C25">
-        <v>1.11840461292536</v>
+        <v>0.3676211422929327</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.04510848018390057</v>
+        <v>0.0657301725230397</v>
       </c>
       <c r="F25">
-        <v>2.143125404486469</v>
+        <v>3.017775530499478</v>
       </c>
       <c r="G25">
-        <v>0.0008020039981551368</v>
+        <v>0.002557234579861104</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.21107662521122</v>
+        <v>1.822367652554433</v>
       </c>
       <c r="J25">
-        <v>0.05050534428071884</v>
+        <v>0.1248582266826279</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1966200022477977</v>
+        <v>0.3456642567984005</v>
       </c>
       <c r="M25">
-        <v>0.6403687052917064</v>
+        <v>0.5116151521946861</v>
       </c>
       <c r="N25">
-        <v>1.051032825250935</v>
+        <v>2.236806708990954</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_201/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_201/res_line/pl_mw.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.304610401831553</v>
+        <v>3.35752482230555</v>
       </c>
       <c r="C2">
-        <v>0.3170129671150619</v>
+        <v>0.9228850295683628</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.06399016100356292</v>
+        <v>0.03956194221692044</v>
       </c>
       <c r="F2">
-        <v>2.994349281435461</v>
+        <v>1.94417144936078</v>
       </c>
       <c r="G2">
-        <v>0.002564756800084399</v>
+        <v>0.0008143647420316847</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1.817068789092097</v>
+        <v>1.124408269820741</v>
       </c>
       <c r="J2">
-        <v>0.1265883087075839</v>
+        <v>0.05526385141618384</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.3426189057107791</v>
+        <v>0.1753961780566584</v>
       </c>
       <c r="M2">
-        <v>0.4901941093412248</v>
+        <v>0.5420089594216222</v>
       </c>
       <c r="N2">
-        <v>2.266691422384085</v>
+        <v>1.127288871191389</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.205259143556304</v>
+        <v>2.92838039394934</v>
       </c>
       <c r="C3">
-        <v>0.2830076992580075</v>
+        <v>0.7940507037446594</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.06278229866926743</v>
+        <v>0.03594295314683826</v>
       </c>
       <c r="F3">
-        <v>2.981554429324746</v>
+        <v>1.817863492959617</v>
       </c>
       <c r="G3">
-        <v>0.002570210412247775</v>
+        <v>0.0008230123840645596</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>1.81538913966844</v>
+        <v>1.071367025673858</v>
       </c>
       <c r="J3">
-        <v>0.1278333547390629</v>
+        <v>0.05866481966290316</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.3408034560854105</v>
+        <v>0.1614026957380048</v>
       </c>
       <c r="M3">
-        <v>0.4762086495737563</v>
+        <v>0.4769999001693961</v>
       </c>
       <c r="N3">
-        <v>2.288435265045486</v>
+        <v>1.182764988785785</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.145572075245241</v>
+        <v>2.669243292537601</v>
       </c>
       <c r="C4">
-        <v>0.2622657990619359</v>
+        <v>0.7163697275181846</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.06202608509202889</v>
+        <v>0.03377076150716007</v>
       </c>
       <c r="F4">
-        <v>2.975213051974677</v>
+        <v>1.743987662972472</v>
       </c>
       <c r="G4">
-        <v>0.002573735499988531</v>
+        <v>0.0008284673235819089</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1.815296149735445</v>
+        <v>1.041261800249742</v>
       </c>
       <c r="J4">
-        <v>0.1286335460213266</v>
+        <v>0.06083345151279307</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.3398117885027361</v>
+        <v>0.1529813265169224</v>
       </c>
       <c r="M4">
-        <v>0.4678830974637691</v>
+        <v>0.4377583141199892</v>
       </c>
       <c r="N4">
-        <v>2.302519670441797</v>
+        <v>1.218572418809345</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.121579046535714</v>
+        <v>2.564605211636888</v>
       </c>
       <c r="C5">
-        <v>0.2538470535120609</v>
+        <v>0.6850202821663913</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.06171419247133159</v>
+        <v>0.0328955793909369</v>
       </c>
       <c r="F5">
-        <v>2.973009208376979</v>
+        <v>1.714736123776504</v>
       </c>
       <c r="G5">
-        <v>0.002575216547592669</v>
+        <v>0.0008307283667393565</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>1.815493626592328</v>
+        <v>1.029565966932587</v>
       </c>
       <c r="J5">
-        <v>0.1289686031494703</v>
+        <v>0.06173655888520191</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.3394387070239802</v>
+        <v>0.1495895606549169</v>
       </c>
       <c r="M5">
-        <v>0.464556130791614</v>
+        <v>0.4219178401502077</v>
       </c>
       <c r="N5">
-        <v>2.308443356777055</v>
+        <v>1.233585484272716</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.117614928995636</v>
+        <v>2.547284557328794</v>
       </c>
       <c r="C6">
-        <v>0.2524511416374366</v>
+        <v>0.6798317902931501</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.06166217585958478</v>
+        <v>0.03275079069377007</v>
       </c>
       <c r="F6">
-        <v>2.972666215825626</v>
+        <v>1.709928493109899</v>
       </c>
       <c r="G6">
-        <v>0.002575465169313963</v>
+        <v>0.0008311061572008877</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1.815540616565038</v>
+        <v>1.027657147868986</v>
       </c>
       <c r="J6">
-        <v>0.1290247807325695</v>
+        <v>0.06188766619388808</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.3393786341542437</v>
+        <v>0.1490286961177958</v>
       </c>
       <c r="M6">
-        <v>0.4640076622140228</v>
+        <v>0.4192961287946204</v>
       </c>
       <c r="N6">
-        <v>2.309438095729078</v>
+        <v>1.236103349809113</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.145247161933753</v>
+        <v>2.667828379071864</v>
       </c>
       <c r="C7">
-        <v>0.2621521253479386</v>
+        <v>0.7159457635597732</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.06202189398097957</v>
+        <v>0.03375892116750201</v>
       </c>
       <c r="F7">
-        <v>2.97518179103767</v>
+        <v>1.743589801140018</v>
       </c>
       <c r="G7">
-        <v>0.002573755293513035</v>
+        <v>0.0008284976605394956</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>1.815297860747712</v>
+        <v>1.041101808198633</v>
       </c>
       <c r="J7">
-        <v>0.1286380284051667</v>
+        <v>0.06084555374947342</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.3398066312232686</v>
+        <v>0.1529354256624416</v>
       </c>
       <c r="M7">
-        <v>0.4678379625689928</v>
+        <v>0.437544097107299</v>
       </c>
       <c r="N7">
-        <v>2.30259881402938</v>
+        <v>1.218773206735008</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.270080673307234</v>
+        <v>3.208566917321377</v>
       </c>
       <c r="C8">
-        <v>0.3052589120672735</v>
+        <v>0.8781347851790997</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.06357667821630919</v>
+        <v>0.03830215158699524</v>
       </c>
       <c r="F8">
-        <v>2.989622881202678</v>
+        <v>1.899812398003121</v>
       </c>
       <c r="G8">
-        <v>0.00256660065438727</v>
+        <v>0.0008173172958017942</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>1.816294542646929</v>
+        <v>1.105579156379882</v>
       </c>
       <c r="J8">
-        <v>0.1270101784040607</v>
+        <v>0.05641926976473854</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.3419674602820635</v>
+        <v>0.1705339742640675</v>
       </c>
       <c r="M8">
-        <v>0.4853176183417887</v>
+        <v>0.5194421152615689</v>
       </c>
       <c r="N8">
-        <v>2.274036266353122</v>
+        <v>1.146043892708768</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.525362490340513</v>
+        <v>4.31024210619421</v>
       </c>
       <c r="C9">
-        <v>0.3909234369369301</v>
+        <v>1.210088747148006</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.06651284161980442</v>
+        <v>0.04773673739503437</v>
       </c>
       <c r="F9">
-        <v>3.029991600802603</v>
+        <v>2.238891295590605</v>
       </c>
       <c r="G9">
-        <v>0.002553964350996358</v>
+        <v>0.0007964663961062015</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>1.825722804749546</v>
+        <v>1.253891668197625</v>
       </c>
       <c r="J9">
-        <v>0.12410192425516</v>
+        <v>0.048421480790247</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.3471773674802279</v>
+        <v>0.2065441270961301</v>
       </c>
       <c r="M9">
-        <v>0.5216738357142674</v>
+        <v>0.6863310766080133</v>
       </c>
       <c r="N9">
-        <v>2.223858370773499</v>
+        <v>1.01813478184058</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.719402045781976</v>
+        <v>5.155287610687537</v>
       </c>
       <c r="C10">
-        <v>0.4546152195821946</v>
+        <v>1.466542286151821</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.06860549336886379</v>
+        <v>0.05519601371824834</v>
       </c>
       <c r="F10">
-        <v>3.067047696564899</v>
+        <v>2.513465402016152</v>
       </c>
       <c r="G10">
-        <v>0.00254552055276692</v>
+        <v>0.0007816796829853896</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>1.837249282927118</v>
+        <v>1.379827840365607</v>
       </c>
       <c r="J10">
-        <v>0.1221389219146864</v>
+        <v>0.0430331564118589</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.3515939165796311</v>
+        <v>0.2341400305567021</v>
       </c>
       <c r="M10">
-        <v>0.5496601416765188</v>
+        <v>0.8142392507361862</v>
       </c>
       <c r="N10">
-        <v>2.190564775775371</v>
+        <v>0.9344767832979812</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.809105554591156</v>
+        <v>5.550151746399422</v>
       </c>
       <c r="C11">
-        <v>0.483768257753411</v>
+        <v>1.586999963760945</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.06954439880551</v>
+        <v>0.05875939665787477</v>
       </c>
       <c r="F11">
-        <v>3.085523511385844</v>
+        <v>2.645307357858002</v>
       </c>
       <c r="G11">
-        <v>0.002541859602316595</v>
+        <v>0.000775037314783852</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>1.843501453384619</v>
+        <v>1.441739251710615</v>
       </c>
       <c r="J11">
-        <v>0.1212837511085691</v>
+        <v>0.04070756051329028</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.3537301913441127</v>
+        <v>0.2469982757166918</v>
       </c>
       <c r="M11">
-        <v>0.5626708476773672</v>
+        <v>0.8739516590485579</v>
       </c>
       <c r="N11">
-        <v>2.176197835187637</v>
+        <v>0.8990069358987327</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.843281479750374</v>
+        <v>5.701436567303176</v>
       </c>
       <c r="C12">
-        <v>0.4948345778610701</v>
+        <v>1.633262660696971</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.06989813357666463</v>
+        <v>0.06013872651222307</v>
       </c>
       <c r="F12">
-        <v>3.092753443112684</v>
+        <v>2.696364032019716</v>
       </c>
       <c r="G12">
-        <v>0.002540499046796108</v>
+        <v>0.0007725311667364257</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.846014787410056</v>
+        <v>1.465938116242683</v>
       </c>
       <c r="J12">
-        <v>0.1209653719776327</v>
+        <v>0.03984701236420563</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.3545573498993519</v>
+        <v>0.2519164860354834</v>
       </c>
       <c r="M12">
-        <v>0.5676379689793905</v>
+        <v>0.896818286240169</v>
       </c>
       <c r="N12">
-        <v>2.170869738951993</v>
+        <v>0.8859813212277885</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.835911854022925</v>
+        <v>5.668772036370626</v>
       </c>
       <c r="C13">
-        <v>0.4924500458374155</v>
+        <v>1.623268562200849</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.06982202979144247</v>
+        <v>0.05984023410689332</v>
       </c>
       <c r="F13">
-        <v>3.091185948871015</v>
+        <v>2.685315455565132</v>
       </c>
       <c r="G13">
-        <v>0.002540790923150236</v>
+        <v>0.0007730705533776586</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>1.845467001077182</v>
+        <v>1.460691352884169</v>
       </c>
       <c r="J13">
-        <v>0.1210336976815753</v>
+        <v>0.04003141617429584</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.3543783985537914</v>
+        <v>0.2508549887845106</v>
       </c>
       <c r="M13">
-        <v>0.5665664196815499</v>
+        <v>0.8918816036738377</v>
       </c>
       <c r="N13">
-        <v>2.172012236329309</v>
+        <v>0.8887679693574526</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.811913071276763</v>
+        <v>5.562561214730351</v>
       </c>
       <c r="C14">
-        <v>0.4846781502595263</v>
+        <v>1.590792401259876</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.06957353662436816</v>
+        <v>0.0588722400708761</v>
       </c>
       <c r="F14">
-        <v>3.086113637296791</v>
+        <v>2.649484329717239</v>
       </c>
       <c r="G14">
-        <v>0.002541747153214194</v>
+        <v>0.0007748309668638154</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1.843705301218193</v>
+        <v>1.443714432786834</v>
       </c>
       <c r="J14">
-        <v>0.1212574484205788</v>
+        <v>0.04063634676496974</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.353797877969896</v>
+        <v>0.247401884112378</v>
       </c>
       <c r="M14">
-        <v>0.5630786888108261</v>
+        <v>0.8758275844040782</v>
       </c>
       <c r="N14">
-        <v>2.175757235434602</v>
+        <v>0.8979269613927485</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.797240130258672</v>
+        <v>5.497741170535448</v>
       </c>
       <c r="C15">
-        <v>0.4799211437995154</v>
+        <v>1.570987474980086</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.06942109393335194</v>
+        <v>0.05828339442201447</v>
       </c>
       <c r="F15">
-        <v>3.083037136797913</v>
+        <v>2.627688266641655</v>
       </c>
       <c r="G15">
-        <v>0.002542336223064874</v>
+        <v>0.000775910371977352</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>1.842645214676068</v>
+        <v>1.433416679790398</v>
       </c>
       <c r="J15">
-        <v>0.1213952132406675</v>
+        <v>0.04100956927845267</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.3534446596205072</v>
+        <v>0.2452933146169158</v>
       </c>
       <c r="M15">
-        <v>0.5609475959833503</v>
+        <v>0.8660283467047307</v>
       </c>
       <c r="N15">
-        <v>2.178065799338142</v>
+        <v>0.903591077100522</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.713568645870339</v>
+        <v>5.129713691821621</v>
       </c>
       <c r="C16">
-        <v>0.4527136860353949</v>
+        <v>1.458754893664093</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.06854387688836105</v>
+        <v>0.05496701170298834</v>
       </c>
       <c r="F16">
-        <v>3.065872897709738</v>
+        <v>2.50499984322073</v>
       </c>
       <c r="G16">
-        <v>0.002545763417838227</v>
+        <v>0.0007821152288917026</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>1.836861048183238</v>
+        <v>1.375882202219884</v>
       </c>
       <c r="J16">
-        <v>0.122195571724907</v>
+        <v>0.04318783353997624</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.3514568572861521</v>
+        <v>0.2333062814128368</v>
       </c>
       <c r="M16">
-        <v>0.5488154912439072</v>
+        <v>0.8103705400269305</v>
       </c>
       <c r="N16">
-        <v>2.191519388849578</v>
+        <v>0.9368496840952574</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.662606835241377</v>
+        <v>4.906788844887956</v>
       </c>
       <c r="C17">
-        <v>0.4360693658341006</v>
+        <v>1.390944451954226</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.06800243817861507</v>
+        <v>0.05297973673328471</v>
       </c>
       <c r="F17">
-        <v>3.055758343959226</v>
+        <v>2.4316010444564</v>
       </c>
       <c r="G17">
-        <v>0.002547911937104979</v>
+        <v>0.0007859412954321102</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>1.833571515146247</v>
+        <v>1.341830821515288</v>
       </c>
       <c r="J17">
-        <v>0.1226962625106953</v>
+        <v>0.04455764043053545</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.3502699114921484</v>
+        <v>0.226034226523268</v>
       </c>
       <c r="M17">
-        <v>0.5414444785670582</v>
+        <v>0.776641002023716</v>
       </c>
       <c r="N17">
-        <v>2.199972405824127</v>
+        <v>0.9579381417813693</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.633429859910962</v>
+        <v>4.779534726391489</v>
       </c>
       <c r="C18">
-        <v>0.4265128170260368</v>
+        <v>1.352292071256045</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.06768978425869321</v>
+        <v>0.05185234643708547</v>
       </c>
       <c r="F18">
-        <v>3.050093044019292</v>
+        <v>2.390028020811215</v>
       </c>
       <c r="G18">
-        <v>0.002549164676052529</v>
+        <v>0.0007881500670230118</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>1.831774364296152</v>
+        <v>1.322674449663396</v>
       </c>
       <c r="J18">
-        <v>0.1229878041954944</v>
+        <v>0.04535719577665098</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.34959918619424</v>
+        <v>0.2218798679055851</v>
       </c>
       <c r="M18">
-        <v>0.5372311809090462</v>
+        <v>0.7573819701744569</v>
       </c>
       <c r="N18">
-        <v>2.204907607280177</v>
+        <v>0.9703088411695688</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.623574179836851</v>
+        <v>4.73660737094292</v>
       </c>
       <c r="C19">
-        <v>0.4232799957910629</v>
+        <v>1.339262327158906</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0675837112208626</v>
+        <v>0.05147316348293174</v>
       </c>
       <c r="F19">
-        <v>3.048201009699639</v>
+        <v>2.376058918161533</v>
       </c>
       <c r="G19">
-        <v>0.002549591750224323</v>
+        <v>0.0007888993971593007</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>1.8311821575506</v>
+        <v>1.316259579000146</v>
       </c>
       <c r="J19">
-        <v>0.1230871256624599</v>
+        <v>0.04562986055143092</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.349374149483296</v>
+        <v>0.2204779895479874</v>
       </c>
       <c r="M19">
-        <v>0.5358091488936623</v>
+        <v>0.750884455969576</v>
       </c>
       <c r="N19">
-        <v>2.206591150090198</v>
+        <v>0.9745378019976272</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.668017837482296</v>
+        <v>4.930417811866619</v>
       </c>
       <c r="C20">
-        <v>0.4378394343615355</v>
+        <v>1.398126028677439</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.06806020233833188</v>
+        <v>0.05318963001693078</v>
       </c>
       <c r="F20">
-        <v>3.056819285092672</v>
+        <v>2.439346903253025</v>
       </c>
       <c r="G20">
-        <v>0.00254768146852997</v>
+        <v>0.0007855331839410236</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1.833911864424977</v>
+        <v>1.345410627852772</v>
       </c>
       <c r="J20">
-        <v>0.1226425947921763</v>
+        <v>0.04441059974231099</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.3503950252245147</v>
+        <v>0.2268053804582308</v>
       </c>
       <c r="M20">
-        <v>0.542226411762158</v>
+        <v>0.7802167021881914</v>
       </c>
       <c r="N20">
-        <v>2.199064983750283</v>
+        <v>0.9556680457503646</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.818956465654935</v>
+        <v>5.593707980867521</v>
       </c>
       <c r="C21">
-        <v>0.4869602125165784</v>
+        <v>1.600312966005959</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.06964657361877258</v>
+        <v>0.0591557023439897</v>
       </c>
       <c r="F21">
-        <v>3.087597153781189</v>
+        <v>2.659976957514573</v>
       </c>
       <c r="G21">
-        <v>0.002541465587031433</v>
+        <v>0.0007743136669720055</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>1.844218793141167</v>
+        <v>1.448679719496525</v>
       </c>
       <c r="J21">
-        <v>0.1211915791920593</v>
+        <v>0.04045810025086105</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.3539678977569025</v>
+        <v>0.2484147679793836</v>
       </c>
       <c r="M21">
-        <v>0.5641020271817681</v>
+        <v>0.8805358187346499</v>
       </c>
       <c r="N21">
-        <v>2.174654185919344</v>
+        <v>0.8952254290082706</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.91881149943066</v>
+        <v>6.037599415066666</v>
       </c>
       <c r="C22">
-        <v>0.5192195235928807</v>
+        <v>1.736288895013729</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.07067285093107856</v>
+        <v>0.06323267977424152</v>
       </c>
       <c r="F22">
-        <v>3.109073893119842</v>
+        <v>2.810838352408325</v>
       </c>
       <c r="G22">
-        <v>0.00253755327326366</v>
+        <v>0.0007670328844113783</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>1.851804984602353</v>
+        <v>1.520619503850241</v>
       </c>
       <c r="J22">
-        <v>0.1202750645525086</v>
+        <v>0.03799332209803907</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3564090062610461</v>
+        <v>0.2628266731438202</v>
       </c>
       <c r="M22">
-        <v>0.5786336342148104</v>
+        <v>0.9476053267035383</v>
       </c>
       <c r="N22">
-        <v>2.159355388549017</v>
+        <v>0.8581086933684645</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.865406140091409</v>
+        <v>5.799641670806182</v>
       </c>
       <c r="C23">
-        <v>0.5019875403547189</v>
+        <v>1.663327491841471</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.07012604604534367</v>
+        <v>0.06103840092725221</v>
       </c>
       <c r="F23">
-        <v>3.09748650966597</v>
+        <v>2.729662115506301</v>
       </c>
       <c r="G23">
-        <v>0.002539627658934571</v>
+        <v>0.0007709151040629648</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>1.847678073736645</v>
+        <v>1.481784139958151</v>
       </c>
       <c r="J23">
-        <v>0.120761308896725</v>
+        <v>0.03929721216547222</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.3550964678745459</v>
+        <v>0.2551064332715214</v>
       </c>
       <c r="M23">
-        <v>0.5708563577736498</v>
+        <v>0.9116584507725705</v>
       </c>
       <c r="N23">
-        <v>2.167460568989142</v>
+        <v>0.8776877791115112</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.665571144532692</v>
+        <v>4.919732345503746</v>
       </c>
       <c r="C24">
-        <v>0.4370391475371775</v>
+        <v>1.394878208948398</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.06803409144532857</v>
+        <v>0.05309469056939875</v>
       </c>
       <c r="F24">
-        <v>3.056339167406833</v>
+        <v>2.435843063868603</v>
       </c>
       <c r="G24">
-        <v>0.002547785608745318</v>
+        <v>0.0007857176624652468</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>1.833757699639605</v>
+        <v>1.343790895141623</v>
       </c>
       <c r="J24">
-        <v>0.1226668464823666</v>
+        <v>0.04447703950090531</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.3503384249635815</v>
+        <v>0.2264566597903155</v>
       </c>
       <c r="M24">
-        <v>0.5418728237805865</v>
+        <v>0.7785997179595157</v>
       </c>
       <c r="N24">
-        <v>2.199474994292615</v>
+        <v>0.9566935903848517</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.455170164585411</v>
+        <v>4.006778385254904</v>
       </c>
       <c r="C25">
-        <v>0.3676211422929327</v>
+        <v>1.118404612925303</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.0657301725230397</v>
+        <v>0.04510848018389702</v>
       </c>
       <c r="F25">
-        <v>3.017775530499478</v>
+        <v>2.143125404486469</v>
       </c>
       <c r="G25">
-        <v>0.002557234579861104</v>
+        <v>0.0008020039982148857</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>1.822367652554433</v>
+        <v>1.211076625211206</v>
       </c>
       <c r="J25">
-        <v>0.1248582266826279</v>
+        <v>0.05050534428076148</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.3456642567984005</v>
+        <v>0.1966200022477977</v>
       </c>
       <c r="M25">
-        <v>0.5116151521946861</v>
+        <v>0.6403687052917064</v>
       </c>
       <c r="N25">
-        <v>2.236806708990954</v>
+        <v>1.051032825250914</v>
       </c>
       <c r="O25">
         <v>0</v>
